--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\L&amp;T\Topup\GitDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\farmerProject\TopupDevops\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>S.No</t>
   </si>
@@ -39,12 +39,18 @@
   </si>
   <si>
     <t>27th Oct</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>Amlan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:H4"/>
+  <dimension ref="E2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +396,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -44,7 +44,7 @@
     <t>present</t>
   </si>
   <si>
-    <t>Amlan</t>
+    <t>Amlan AB</t>
   </si>
 </sst>
 </file>
